--- a/compare1.xlsx
+++ b/compare1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\compare excel\compare-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>nguyễn đức chuyên</t>
   </si>
@@ -38,13 +38,19 @@
     <t>địa chỉ</t>
   </si>
   <si>
-    <t>nguyễn đức triển</t>
-  </si>
-  <si>
     <t>tphcm</t>
   </si>
   <si>
     <t>nguyễn văn mạnh</t>
+  </si>
+  <si>
+    <t>trần đức triển</t>
+  </si>
+  <si>
+    <t>trần tuấn dương</t>
+  </si>
+  <si>
+    <t>sài gòn</t>
   </si>
 </sst>
 </file>
@@ -362,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,10 +395,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -400,10 +406,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -414,7 +420,18 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
